--- a/artfynd/A 43222-2024 artfynd.xlsx
+++ b/artfynd/A 43222-2024 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130800748</v>
+        <v>130800737</v>
       </c>
       <c r="B2" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>488228</v>
+        <v>488255</v>
       </c>
       <c r="R2" t="n">
-        <v>6721082</v>
+        <v>6721336</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:53</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:53</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130800737</v>
+        <v>130800759</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>488255</v>
+        <v>488315</v>
       </c>
       <c r="R3" t="n">
-        <v>6721336</v>
+        <v>6721292</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,10 +894,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130800759</v>
+        <v>130800748</v>
       </c>
       <c r="B4" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>488315</v>
+        <v>488228</v>
       </c>
       <c r="R4" t="n">
-        <v>6721292</v>
+        <v>6721082</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1001,10 +1001,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130800763</v>
+        <v>130800732</v>
       </c>
       <c r="B5" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>488309</v>
+        <v>488287</v>
       </c>
       <c r="R5" t="n">
-        <v>6721442</v>
+        <v>6721384</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1108,10 +1108,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130800732</v>
+        <v>130800736</v>
       </c>
       <c r="B6" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>488287</v>
+        <v>488253</v>
       </c>
       <c r="R6" t="n">
-        <v>6721384</v>
+        <v>6721360</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>12:42</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>12:42</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1215,10 +1215,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130800736</v>
+        <v>130800755</v>
       </c>
       <c r="B7" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>488253</v>
+        <v>488272</v>
       </c>
       <c r="R7" t="n">
-        <v>6721360</v>
+        <v>6721114</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:42</t>
+          <t>12:59</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:42</t>
+          <t>12:59</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1322,10 +1322,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130800755</v>
+        <v>130800763</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1357,10 +1357,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>488272</v>
+        <v>488309</v>
       </c>
       <c r="R8" t="n">
-        <v>6721114</v>
+        <v>6721442</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:59</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:59</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1432,7 +1432,7 @@
         <v>130800751</v>
       </c>
       <c r="B9" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>130800767</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>130800746</v>
       </c>
       <c r="B11" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>130800747</v>
       </c>
       <c r="B12" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>130800740</v>
       </c>
       <c r="B13" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>130800741</v>
       </c>
       <c r="B14" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2071,45 +2071,50 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130800750</v>
+        <v>130800769</v>
       </c>
       <c r="B15" t="n">
-        <v>79239</v>
+        <v>5177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>488188</v>
+        <v>488274</v>
       </c>
       <c r="R15" t="n">
-        <v>6721096</v>
+        <v>6721118</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2141,7 +2146,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>12:59</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2151,7 +2156,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>12:59</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2178,45 +2183,50 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130800745</v>
+        <v>130800615</v>
       </c>
       <c r="B16" t="n">
-        <v>79239</v>
+        <v>57073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>488254</v>
+        <v>488401</v>
       </c>
       <c r="R16" t="n">
-        <v>6721190</v>
+        <v>6721155</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2248,7 +2258,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:49</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2258,7 +2268,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:49</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2285,10 +2295,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130800615</v>
+        <v>130800639</v>
       </c>
       <c r="B17" t="n">
-        <v>57069</v>
+        <v>8451</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2296,27 +2306,27 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100138</v>
+        <v>106545</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>färsk spillning</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2325,10 +2335,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>488401</v>
+        <v>488441</v>
       </c>
       <c r="R17" t="n">
-        <v>6721155</v>
+        <v>6721177</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2360,7 +2370,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2370,7 +2380,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2379,6 +2389,7 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2397,50 +2408,45 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130800769</v>
+        <v>130800750</v>
       </c>
       <c r="B18" t="n">
-        <v>5177</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>488274</v>
+        <v>488188</v>
       </c>
       <c r="R18" t="n">
-        <v>6721118</v>
+        <v>6721096</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2472,7 +2478,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:59</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2482,7 +2488,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:59</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2509,50 +2515,45 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130800639</v>
+        <v>130800745</v>
       </c>
       <c r="B19" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>488441</v>
+        <v>488254</v>
       </c>
       <c r="R19" t="n">
-        <v>6721177</v>
+        <v>6721190</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2584,7 +2585,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:10</t>
+          <t>12:49</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2594,7 +2595,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:10</t>
+          <t>12:49</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2603,7 +2604,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2622,45 +2622,50 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130800752</v>
+        <v>130800770</v>
       </c>
       <c r="B20" t="n">
-        <v>79239</v>
+        <v>5177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>488249</v>
+        <v>488368</v>
       </c>
       <c r="R20" t="n">
-        <v>6721089</v>
+        <v>6721128</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2692,7 +2697,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2702,7 +2707,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2729,50 +2734,45 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130800770</v>
+        <v>130800752</v>
       </c>
       <c r="B21" t="n">
-        <v>5177</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>488368</v>
+        <v>488249</v>
       </c>
       <c r="R21" t="n">
-        <v>6721128</v>
+        <v>6721089</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2844,7 +2844,7 @@
         <v>130800734</v>
       </c>
       <c r="B22" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>130800624</v>
       </c>
       <c r="B23" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3060,10 +3060,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130800625</v>
+        <v>130800756</v>
       </c>
       <c r="B24" t="n">
-        <v>57877</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3071,39 +3071,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>488400</v>
+        <v>488470</v>
       </c>
       <c r="R24" t="n">
-        <v>6721188</v>
+        <v>6721165</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3135,7 +3130,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3145,7 +3140,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3172,45 +3167,50 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130800756</v>
+        <v>130800640</v>
       </c>
       <c r="B25" t="n">
-        <v>79239</v>
+        <v>8451</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>488470</v>
+        <v>488413</v>
       </c>
       <c r="R25" t="n">
-        <v>6721165</v>
+        <v>6721172</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3261,6 +3261,7 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3279,38 +3280,38 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130800640</v>
+        <v>130800625</v>
       </c>
       <c r="B26" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3319,10 +3320,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>488413</v>
+        <v>488400</v>
       </c>
       <c r="R26" t="n">
-        <v>6721172</v>
+        <v>6721188</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3354,7 +3355,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3364,7 +3365,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3373,7 +3374,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>130800735</v>
       </c>
       <c r="B27" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3499,10 +3499,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130800762</v>
+        <v>130800760</v>
       </c>
       <c r="B28" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3534,10 +3534,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>488314</v>
+        <v>488321</v>
       </c>
       <c r="R28" t="n">
-        <v>6721463</v>
+        <v>6721317</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3579,7 +3579,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3606,10 +3606,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130800760</v>
+        <v>130800762</v>
       </c>
       <c r="B29" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3641,10 +3641,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>488321</v>
+        <v>488314</v>
       </c>
       <c r="R29" t="n">
-        <v>6721317</v>
+        <v>6721463</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3716,7 +3716,7 @@
         <v>130800761</v>
       </c>
       <c r="B30" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>130800628</v>
       </c>
       <c r="B31" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>130800757</v>
       </c>
       <c r="B32" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>130800742</v>
       </c>
       <c r="B33" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>130800749</v>
       </c>
       <c r="B34" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4253,50 +4253,45 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130800771</v>
+        <v>130800758</v>
       </c>
       <c r="B35" t="n">
-        <v>5177</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>488277</v>
+        <v>488421</v>
       </c>
       <c r="R35" t="n">
-        <v>6721389</v>
+        <v>6721174</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4328,7 +4323,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4338,7 +4333,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4365,45 +4360,50 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130800758</v>
+        <v>130800771</v>
       </c>
       <c r="B36" t="n">
-        <v>79239</v>
+        <v>5177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>488421</v>
+        <v>488277</v>
       </c>
       <c r="R36" t="n">
-        <v>6721174</v>
+        <v>6721389</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4472,10 +4472,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130800743</v>
+        <v>130800754</v>
       </c>
       <c r="B37" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>488261</v>
       </c>
       <c r="R37" t="n">
-        <v>6721212</v>
+        <v>6721112</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4542,7 +4542,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:59</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:59</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4579,10 +4579,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130800754</v>
+        <v>130800765</v>
       </c>
       <c r="B38" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4614,10 +4614,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>488261</v>
+        <v>488294</v>
       </c>
       <c r="R38" t="n">
-        <v>6721112</v>
+        <v>6721432</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>12:59</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4659,7 +4659,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>12:59</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4686,10 +4686,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130800765</v>
+        <v>130800743</v>
       </c>
       <c r="B39" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4721,10 +4721,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>488294</v>
+        <v>488261</v>
       </c>
       <c r="R39" t="n">
-        <v>6721432</v>
+        <v>6721212</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4756,7 +4756,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4796,7 +4796,7 @@
         <v>130800739</v>
       </c>
       <c r="B40" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4900,10 +4900,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130800605</v>
+        <v>130800647</v>
       </c>
       <c r="B41" t="n">
-        <v>90841</v>
+        <v>57881</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4911,34 +4911,39 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>889</v>
+        <v>100049</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Vintertagging</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Plicatura pendula</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) B.Palla &amp; al.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>488425</v>
+        <v>488463</v>
       </c>
       <c r="R41" t="n">
-        <v>6721284</v>
+        <v>6721451</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4970,7 +4975,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -4980,7 +4985,12 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>I 200+ år gammal tall</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5007,10 +5017,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130800647</v>
+        <v>130800605</v>
       </c>
       <c r="B42" t="n">
-        <v>57877</v>
+        <v>90845</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5018,39 +5028,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100049</v>
+        <v>889</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vintertagging</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Plicatura pendula</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) B.Palla &amp; al.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>488463</v>
+        <v>488425</v>
       </c>
       <c r="R42" t="n">
-        <v>6721451</v>
+        <v>6721284</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5082,7 +5087,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5092,12 +5097,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>I 200+ år gammal tall</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5124,10 +5124,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130800753</v>
+        <v>130800744</v>
       </c>
       <c r="B43" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5159,10 +5159,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>488256</v>
+        <v>488254</v>
       </c>
       <c r="R43" t="n">
-        <v>6721103</v>
+        <v>6721200</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5194,7 +5194,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>12:49</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>12:49</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5231,10 +5231,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130800738</v>
+        <v>130800731</v>
       </c>
       <c r="B44" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>488241</v>
+        <v>488290</v>
       </c>
       <c r="R44" t="n">
-        <v>6721318</v>
+        <v>6721380</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5338,10 +5338,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130800744</v>
+        <v>130800753</v>
       </c>
       <c r="B45" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5373,10 +5373,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>488254</v>
+        <v>488256</v>
       </c>
       <c r="R45" t="n">
-        <v>6721200</v>
+        <v>6721103</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5408,7 +5408,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>12:49</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>12:49</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5445,10 +5445,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130800731</v>
+        <v>130800738</v>
       </c>
       <c r="B46" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5480,10 +5480,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>488290</v>
+        <v>488241</v>
       </c>
       <c r="R46" t="n">
-        <v>6721380</v>
+        <v>6721318</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5515,7 +5515,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AD46" t="b">

--- a/artfynd/A 43222-2024 artfynd.xlsx
+++ b/artfynd/A 43222-2024 artfynd.xlsx
@@ -1001,7 +1001,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130800732</v>
+        <v>130800736</v>
       </c>
       <c r="B5" t="n">
         <v>79243</v>
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>488287</v>
+        <v>488253</v>
       </c>
       <c r="R5" t="n">
-        <v>6721384</v>
+        <v>6721360</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>12:42</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>12:42</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1108,7 +1108,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130800736</v>
+        <v>130800755</v>
       </c>
       <c r="B6" t="n">
         <v>79243</v>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>488253</v>
+        <v>488272</v>
       </c>
       <c r="R6" t="n">
-        <v>6721360</v>
+        <v>6721114</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:42</t>
+          <t>12:59</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:42</t>
+          <t>12:59</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1215,7 +1215,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130800755</v>
+        <v>130800763</v>
       </c>
       <c r="B7" t="n">
         <v>79243</v>
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>488272</v>
+        <v>488309</v>
       </c>
       <c r="R7" t="n">
-        <v>6721114</v>
+        <v>6721442</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:59</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:59</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1322,7 +1322,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130800763</v>
+        <v>130800732</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1357,10 +1357,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>488309</v>
+        <v>488287</v>
       </c>
       <c r="R8" t="n">
-        <v>6721442</v>
+        <v>6721384</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -2622,50 +2622,45 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130800770</v>
+        <v>130800752</v>
       </c>
       <c r="B20" t="n">
-        <v>5177</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>488368</v>
+        <v>488249</v>
       </c>
       <c r="R20" t="n">
-        <v>6721128</v>
+        <v>6721089</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2697,7 +2692,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2707,7 +2702,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2734,45 +2729,50 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130800752</v>
+        <v>130800770</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>5177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>488249</v>
+        <v>488368</v>
       </c>
       <c r="R21" t="n">
-        <v>6721089</v>
+        <v>6721128</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3167,38 +3167,38 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130800640</v>
+        <v>130800625</v>
       </c>
       <c r="B25" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3207,10 +3207,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>488413</v>
+        <v>488400</v>
       </c>
       <c r="R25" t="n">
-        <v>6721172</v>
+        <v>6721188</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3261,7 +3261,6 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3280,38 +3279,38 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130800625</v>
+        <v>130800640</v>
       </c>
       <c r="B26" t="n">
-        <v>57881</v>
+        <v>8451</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3320,10 +3319,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>488400</v>
+        <v>488413</v>
       </c>
       <c r="R26" t="n">
-        <v>6721188</v>
+        <v>6721172</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3355,7 +3354,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3365,7 +3364,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3374,6 +3373,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -4472,7 +4472,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130800754</v>
+        <v>130800743</v>
       </c>
       <c r="B37" t="n">
         <v>79243</v>
@@ -4510,7 +4510,7 @@
         <v>488261</v>
       </c>
       <c r="R37" t="n">
-        <v>6721112</v>
+        <v>6721212</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4542,7 +4542,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>12:59</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>12:59</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4579,7 +4579,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130800765</v>
+        <v>130800754</v>
       </c>
       <c r="B38" t="n">
         <v>79243</v>
@@ -4614,10 +4614,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>488294</v>
+        <v>488261</v>
       </c>
       <c r="R38" t="n">
-        <v>6721432</v>
+        <v>6721112</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:59</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4659,7 +4659,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:59</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4686,7 +4686,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130800743</v>
+        <v>130800765</v>
       </c>
       <c r="B39" t="n">
         <v>79243</v>
@@ -4721,10 +4721,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>488261</v>
+        <v>488294</v>
       </c>
       <c r="R39" t="n">
-        <v>6721212</v>
+        <v>6721432</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4756,7 +4756,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD39" t="b">
